--- a/WorkData/projectdocument_EHEC.xlsx
+++ b/WorkData/projectdocument_EHEC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\autowork\WorkData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9707E05E-4FA9-406E-9BBB-5E336EC38653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7FAFDF-0249-4025-8993-D77119A81CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDRS通道号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DRCS通道号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抄送方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#PPL;#PQC;#PQA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +313,18 @@
   </si>
   <si>
     <t>编写人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDRS通道号，多个逗号分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inner_cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部抄送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -728,71 +732,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -800,67 +806,67 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W2" s="1"/>
     </row>
@@ -869,59 +875,59 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3">
         <v>45026</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W3" s="1"/>
     </row>
@@ -1110,7 +1116,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>

--- a/WorkData/projectdocument_EHEC.xlsx
+++ b/WorkData/projectdocument_EHEC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\autowork\WorkData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7FAFDF-0249-4025-8993-D77119A81CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F95ECC-7584-47E6-B763-8E315885BB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,15 +316,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDRS通道号，多个逗号分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inner_cc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内部抄送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDRS通道号或附件，多个逗号分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -774,7 +774,7 @@
         <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>26</v>
@@ -845,13 +845,13 @@
         <v>54</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>8</v>

--- a/WorkData/projectdocument_EHEC.xlsx
+++ b/WorkData/projectdocument_EHEC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\autowork\WorkData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\python_project\autowork\WorkData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F95ECC-7584-47E6-B763-8E315885BB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EA9AA6-8C69-4D9C-926A-5E9E8C2546CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LF-120G_doc" sheetId="1" r:id="rId1"/>
@@ -701,36 +701,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="26.9140625" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.9140625" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="25.58203125" customWidth="1"/>
-    <col min="9" max="9" width="9.08203125" customWidth="1"/>
-    <col min="10" max="10" width="23.08203125" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.08203125" customWidth="1"/>
-    <col min="13" max="13" width="11.4140625" customWidth="1"/>
-    <col min="14" max="14" width="12.4140625" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
     <col min="15" max="15" width="16.5" customWidth="1"/>
     <col min="16" max="16" width="8.25" customWidth="1"/>
-    <col min="17" max="17" width="27.1640625" customWidth="1"/>
-    <col min="18" max="19" width="9.33203125" customWidth="1"/>
-    <col min="20" max="21" width="12.58203125" customWidth="1"/>
+    <col min="17" max="17" width="28.125" customWidth="1"/>
+    <col min="18" max="19" width="9.375" customWidth="1"/>
+    <col min="20" max="21" width="12.625" customWidth="1"/>
     <col min="22" max="22" width="11.75" customWidth="1"/>
     <col min="23" max="23" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -801,7 +801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +870,7 @@
       </c>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -931,7 +931,7 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
